--- a/Backend/uploads/movimientos_combinados.xlsx
+++ b/Backend/uploads/movimientos_combinados.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="12_DFK" sheetId="1" r:id="rId1"/>
-    <sheet name="12_GRANOS_DE_ARENA" sheetId="2" r:id="rId2"/>
+    <sheet name="07_HLB_Banorte" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="130">
   <si>
     <t>fecha</t>
   </si>
@@ -35,61 +34,376 @@
     <t>saldo_operacion</t>
   </si>
   <si>
-    <t>02/12/2024</t>
-  </si>
-  <si>
-    <t>05/12/2024</t>
+    <t>01/06/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
+  </si>
+  <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>16/06/2024</t>
+  </si>
+  <si>
+    <t>17/06/2024</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>29/06/2024</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>P14 SECRETARIA DE FINANZ</t>
-  </si>
-  <si>
-    <t>S39 SERV BANCA INTERNET</t>
-  </si>
-  <si>
-    <t>S40 IVA COM SERV BCA INTERNET</t>
-  </si>
-  <si>
-    <t>06/12/2024</t>
-  </si>
-  <si>
-    <t>10/12/2024</t>
-  </si>
-  <si>
-    <t>18/12/2024</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
-    <t>30/12/2024</t>
-  </si>
-  <si>
-    <t>31/12/2024</t>
-  </si>
-  <si>
-    <t>W02 DEPOSITO DE TERCERO</t>
-  </si>
-  <si>
-    <t>N06 PAGO CUENTA DE TERCERO</t>
-  </si>
-  <si>
-    <t>P14 SAT</t>
-  </si>
-  <si>
-    <t>C02 DEPOSITO EN EFECTIVO</t>
-  </si>
-  <si>
-    <t>T20 SPEI RECIBIDOSANTANDER</t>
-  </si>
-  <si>
-    <t>P14 FUNDACION COMUNITARI</t>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240601 =REFERENCIA CTA/CLABE: 127650013858001267, BXI</t>
+  </si>
+  <si>
+    <t>LA ZARZA 07245990C</t>
+  </si>
+  <si>
+    <t>COMISION 07245990C</t>
+  </si>
+  <si>
+    <t>IVA COMISION 07245990C</t>
+  </si>
+  <si>
+    <t>LA ZARZA 07245990D</t>
+  </si>
+  <si>
+    <t>COMISION 07245990D</t>
+  </si>
+  <si>
+    <t>IVA COMISION 07245990D</t>
+  </si>
+  <si>
+    <t>PAGO EFECTIVO</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240603 =REFERENCIA CTA/CLABE: 646650146400693905, BXI</t>
+  </si>
+  <si>
+    <t>1552024CARGO DOMICILIACION CGO DOMICILIACION:ADT PRIVATE SECURITY SERVICE LEYENDA:</t>
+  </si>
+  <si>
+    <t>DROPBOX*WSSTB3BMWK13 MONEDA ORIGEN: 11.99 USD USD : 11.99 TIPO CAMBIO : 17.1027</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $7,360.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $5,270.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $9,740.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $6,360.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240604 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0421693908 IVA: . 0</t>
+  </si>
+  <si>
+    <t>CFE CONTIGO MU RFC:CSS 160330CP7</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240605 =REFERENCIA CTA/CLABE: 646650146400693905, BXI</t>
+  </si>
+  <si>
+    <t>RENTA MENSUAL 07245990</t>
+  </si>
+  <si>
+    <t>I.V.A. COMISION 07245990</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240606 =REFERENCIA CTA/CLABE: 012650001152113790, BXI</t>
+  </si>
+  <si>
+    <t>DEP.EFECTIVO</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240607 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>2024060740014BMOV0000442868870 SPEI RECIBIDO, BCO:0014 SANTANDER HR LIQ: 14:21:56</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240607 =REFERENCIA CTA/CLABE: 014650655044189671, BXI</t>
+  </si>
+  <si>
+    <t>ABONO POR IF 0421693908</t>
+  </si>
+  <si>
+    <t>0000185CARGO DOMICILIACION CGO DOMICILIACION:GRUPO NACIONAL PROVINCIAL S LEYENDA:</t>
+  </si>
+  <si>
+    <t>MEMBRESIA ENLACE GLOBAL</t>
+  </si>
+  <si>
+    <t>IVA MEMBRESIA ENLACE GLOBAL</t>
+  </si>
+  <si>
+    <t>ABONO POR CL 0421693908</t>
+  </si>
+  <si>
+    <t>INSTITUTO OTE DE PUEBL RFC:IOP 891006QF0</t>
+  </si>
+  <si>
+    <t>QUIOSCOS TB MU RFC:GEP 8501011S6</t>
+  </si>
+  <si>
+    <t>CONEKTA*MICROSIP RFC:APC 860429U75</t>
+  </si>
+  <si>
+    <t>OFFICE DEPOT ZAVALETA RFC:ODM 950324V2A</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240610 =REFERENCIA CTA/CLABE: 646650146400693905, BXI</t>
+  </si>
+  <si>
+    <t>FARMADROGU MEDINA 15 RFC:FME 991106D98</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240612 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0421693908 IVA: . 0</t>
+  </si>
+  <si>
+    <t>CONEKTA*FACTURE YA RFC:STA 0903206B9</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240613 =REFERENCIA CTA/CLABE: 014650606103872658, BXI</t>
+  </si>
+  <si>
+    <t>Retiro de efectivo en cajero Banorte. Retiraste $500.00 MXN de tu cuenta **5915 en el cajero de</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240614 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240614 =REFERENCIA CTA/CLABE: 014650655044189671, BXI</t>
+  </si>
+  <si>
+    <t>UNICEF DONATIVOS CA CR RFC:FNU 540520JX8</t>
+  </si>
+  <si>
+    <t>MI ATT APP PAQ DAT RFC:CNM 980114PI2</t>
+  </si>
+  <si>
+    <t>MURAL DE LOS POBLANOS RFC:EES 971216L87</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240617 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240617 =REFERENCIA CTA/CLABE: 044650036096619487, BXI</t>
+  </si>
+  <si>
+    <t>IACH36M0V3F496 SPEI RECIBIDO, BCO:0110 JP MORGAN HR LIQ: 14:53:31 DEL CLIENTE</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240617 =REFERENCIA CTA/CLABE: 646650146400693905, BXI</t>
+  </si>
+  <si>
+    <t>PAGO DE LDC-IMSS ALTA: Y24J5TW64C6D2JBMY5751000545Q0000000000000000000003Q88 ID</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240617 =REFERENCIA CTA/CLABE: 014650606103872658, BXI</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240617 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0421693908 IVA: . 0</t>
+  </si>
+  <si>
+    <t>BOTANAS ALONDRA RFC:MOPG880719HJ2</t>
+  </si>
+  <si>
+    <t>IACH36N0V3MTN1 SPEI RECIBIDO, BCO:0110 JP MORGAN HR LIQ: 14:33:11 DEL CLIENTE</t>
+  </si>
+  <si>
+    <t>COMAMOS Y CREZCAMOS CO RFC:CCA 031112162</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240621 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240621 =REFERENCIA CTA/CLABE: 014650655044189671, BXI</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240621 =REFERENCIA CTA/CLABE: 014650606103872658, BXI</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $3,220.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>Deposito en efectivo en cajero Banorte. Te depositaron $1,640.00 MXN a la tarjeta **4761 de</t>
+  </si>
+  <si>
+    <t>Google Storage MONEDA ORIGEN: 169.00 MXN USD : 169.85 TIPO CAMBIO : 0.0000</t>
+  </si>
+  <si>
+    <t>SEM PAN CAFE RFC:LAMH910206RY5</t>
+  </si>
+  <si>
+    <t>30202466211173191030012096 SPEI RECIBIDO, BCO:2001 BANXICO HR LIQ: 05:02:09 DEL</t>
+  </si>
+  <si>
+    <t>30202466211173191030028122 SPEI RECIBIDO, BCO:2001 BANXICO HR LIQ: 05:02:09 DEL</t>
+  </si>
+  <si>
+    <t>30202466211173191030012087 SPEI RECIBIDO, BCO:2001 BANXICO HR LIQ: 05:02:09 DEL</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240625 =REFERENCIA CTA/CLABE: 646650146400693905, BXI</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240625 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0421693908 IVA: . 0</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240625 =REFERENCIA CTA/CLABE: 021650062308019487, BXI</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240625 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>CHEQUE PAGADO 0000375</t>
+  </si>
+  <si>
+    <t>CHEQUE PAGADO 0000376</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240626 , DE LA CUENTA: 0421693908</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240626 =REFERENCIA CTA/CLABE: 012650001152113790, BXI</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240626 =REFERENCIA CTA/CLABE: 4772143005901588 , BXI SPEI</t>
+  </si>
+  <si>
+    <t>4327200CARGO DOMICILIACION CGO DOMICILIACION:TELEFONOS DE MEXICO S.A.B DE LEYENDA:</t>
+  </si>
+  <si>
+    <t>ZAVALETA RFC:RAL 8311217KA</t>
+  </si>
+  <si>
+    <t>INSIGNIA E COMMERCE RFC:ILI 0805169R6</t>
+  </si>
+  <si>
+    <t>PAGO REFERENCIADO 564181317924 Impuesto Deposito Referenciado</t>
+  </si>
+  <si>
+    <t>COMPRA ORDEN DE PAGO SPEI 0240628 =REFERENCIA CTA/CLABE: 014650655044189671, BXI</t>
+  </si>
+  <si>
+    <t>COM.CHQ.EXPED. LIQ 2024-06-30</t>
+  </si>
+  <si>
+    <t>I.V.A. LIQ 2024-06-30</t>
+  </si>
+  <si>
+    <t>COBRO DE COMISION COM. POR TRANSFER DE FONDOS IF</t>
+  </si>
+  <si>
+    <t>IVA. POR TRANSFER DE FONDOS IF IVA. POR TRANSFER DE FONDOS IF</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240604 , DE LA CUENTA: 0417975915</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240607 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>CARGO POR IF 0417975915</t>
+  </si>
+  <si>
+    <t>CARGO POR CL 0417975915</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240612 , DE LA CUENTA: 0417975915</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240614 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240617 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240617 , DE LA CUENTA: 0417975915</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240621 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>TRASPASO 0000240625 , DE LA CUENTA: 0417975915</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240625 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>TRASP FONDOS 0000240626 AL R.F.C. OITM7407291J5 , A LA CUENTA: 0417975915 IVA: . 0</t>
+  </si>
+  <si>
+    <t>LIQ.INT.BRUTOS LIQ 2024-06-30</t>
+  </si>
+  <si>
+    <t>I.S.R. LIQ 2024-06-30</t>
+  </si>
+  <si>
+    <t>COBRO DE COMISION COM. POR TRANSFER DE FONDOS CL</t>
+  </si>
+  <si>
+    <t>IVA. POR TRANSFER DE FONDOS CL IVA. POR TRANSFER DE FONDOS CL</t>
   </si>
 </sst>
 </file>
@@ -447,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +792,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>765.6</v>
       </c>
       <c r="D2">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>5811.21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,16 +812,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4191</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>10002.21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -512,287 +832,5039 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>450</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3480</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>9915.450000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4000</v>
+        <v>13.89</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>9901.559999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>12508</v>
       </c>
       <c r="D6">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>22409.56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>430</v>
+        <v>191.37</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>22218.19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>238</v>
+        <v>30.61</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>22187.58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>3342.67</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>19187.58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>3000</v>
+        <v>1752.41</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>17435.17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>740.08</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>16695.09</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>205.06</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>16490.03</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>2250</v>
+        <v>2950</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>19440.03</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>61.07</v>
       </c>
       <c r="D14">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>19378.96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>9.77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>19369.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>3990</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>23359.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>61.03</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>23298.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>23288.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>7360</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>30648.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5270</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>35918.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>9740</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>45658.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>6360</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>52018.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>35480</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>16538.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>6538</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>10000.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>902</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>10902.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>18.67</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>10883.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2.99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>10880.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1789</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>12669.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>27.37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>12642.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4.39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>12637.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>248.93</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31">
+        <v>12389.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>250</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32">
+        <v>12139.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>12099.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>743</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>12842.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>15.38</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>12826.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2.46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>12824.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>1302</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>14126.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>19.93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>14106.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3.19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>14103.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>3480</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <v>10623.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>609</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>11232.07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>12.61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42">
+        <v>11219.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2.01</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>11217.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>1554</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44">
+        <v>12771.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>23.78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>12747.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3.81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46">
+        <v>12743.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>4754</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47">
+        <v>17497.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>4500</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>21997.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>4700</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49">
+        <v>26697.86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>45000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50">
+        <v>71697.86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>6846</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51">
+        <v>78543.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>60129.89</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>18413.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <v>4256.06</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>14157.91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>210</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>13947.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>869.64</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55">
+        <v>14817.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>7470.55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>140</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>140</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>22.4</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>7369.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>22.4</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>532.4400000000001</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <v>7879.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>3610</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62">
+        <v>11489.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>74.73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63">
+        <v>11414.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>11.96</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64">
+        <v>11402.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>7712</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65">
+        <v>19114.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>117.98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66">
+        <v>18996.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>18.89</v>
+      </c>
+      <c r="E67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>18977.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>6080</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <v>12897.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>650</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69">
+        <v>12247.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>532.4400000000001</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70">
+        <v>11715.44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>617</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <v>11098.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>1858</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72">
+        <v>12956.44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>38.47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73">
+        <v>12917.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>6.16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>12911.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>2712</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75">
+        <v>15623.81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>41.49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76">
+        <v>15582.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>6.65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77">
+        <v>15575.67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>1752.41</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78">
+        <v>13823.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>1393</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>15216.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>28.83</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <v>15187.43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>4.61</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81">
+        <v>15182.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>1458</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82">
+        <v>16640.82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>22.3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83">
+        <v>16618.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3.58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84">
+        <v>16614.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>1674.45</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85">
+        <v>14940.49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>280</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>15220.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>5.8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87">
+        <v>15214.69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0.93</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <v>15213.76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>2718</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>17931.76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>41.61</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>17890.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>6.67</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91">
+        <v>17883.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>4129</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92">
+        <v>22012.48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>4976</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93">
+        <v>26988.48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>9103</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94">
+        <v>36091.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>8672</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95">
+        <v>44763.48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96">
+        <v>40000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96">
+        <v>4763.48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>900</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97">
+        <v>3863.48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98">
+        <v>789</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <v>4652.48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99">
+        <v>16.33</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <v>4636.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2.61</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100">
+        <v>4633.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>2185</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101">
+        <v>6818.54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>33.45</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102">
+        <v>6785.09</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>5.35</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103">
+        <v>6779.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>1000</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>69</v>
+      </c>
+      <c r="F104">
+        <v>5779.74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>1186</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105">
+        <v>6965.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>24.56</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106">
+        <v>6941.18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>3.93</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107">
+        <v>6937.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>2778</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108">
+        <v>9715.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>42.51</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109">
+        <v>9672.74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>6.81</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110">
+        <v>9665.93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>7103</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111">
+        <v>16768.93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>4725</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112">
+        <v>21493.93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>4365</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113">
+        <v>25858.93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <v>5142</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114">
+        <v>31000.93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>500</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F115">
+        <v>30500.93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>20000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116">
+        <v>50500.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>49311.68</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117">
+        <v>1189.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>160</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118">
+        <v>1029.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119">
+        <v>3023</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119">
+        <v>4052.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>1941</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120">
+        <v>5993.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>40.19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121">
+        <v>5953.06</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>6.43</v>
+      </c>
+      <c r="E122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122">
+        <v>5946.63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>3382</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123">
+        <v>9328.629999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>51.74</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124">
+        <v>9276.889999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125">
+        <v>9268.610000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>500</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>73</v>
+      </c>
+      <c r="F126">
+        <v>8768.610000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>269</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127">
+        <v>8499.610000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>3283.25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128">
+        <v>5216.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>2000</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129">
+        <v>7216.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>6380</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>77</v>
+      </c>
+      <c r="F130">
+        <v>836.36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131">
+        <v>7892</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131">
+        <v>8728.360000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>19355</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132">
+        <v>28083.36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>41145</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133">
+        <v>69228.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>44236.13</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134">
+        <v>113464.49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135">
+        <v>1752.41</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135">
+        <v>111712.08</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>2386.7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>80</v>
+      </c>
+      <c r="F136">
+        <v>109325.38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>20000</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137">
+        <v>89325.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>80000</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>82</v>
+      </c>
+      <c r="F138">
+        <v>9325.379999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>250</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F139">
+        <v>9075.379999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>4671.32</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>84</v>
+      </c>
+      <c r="F140">
+        <v>13746.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>500</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>85</v>
+      </c>
+      <c r="F141">
+        <v>13246.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>94</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142">
+        <v>13340.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>1.95</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143">
+        <v>13338.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0.31</v>
+      </c>
+      <c r="E144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144">
+        <v>13338.44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>3477</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145">
+        <v>16815.44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>53.21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146">
+        <v>16762.23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>8.51</v>
+      </c>
+      <c r="E147" t="s">
+        <v>37</v>
+      </c>
+      <c r="F147">
+        <v>16753.72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>1556</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148">
+        <v>18309.72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>32.21</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149">
+        <v>18277.51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>5.16</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150">
+        <v>18272.35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151">
+        <v>3546</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151">
+        <v>21818.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>54.24</v>
+      </c>
+      <c r="E152" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152">
+        <v>21764.11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>8.68</v>
+      </c>
+      <c r="E153" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153">
+        <v>21755.43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>95000</v>
+      </c>
+      <c r="E154" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154">
+        <v>116755.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <v>114978.03</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>87</v>
+      </c>
+      <c r="F155">
+        <v>1777.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156">
+        <v>210</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156">
+        <v>1567.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>500</v>
+      </c>
+      <c r="E157" t="s">
+        <v>86</v>
+      </c>
+      <c r="F157">
+        <v>2067.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158">
+        <v>500</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158">
+        <v>1567.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159">
+        <v>26.45</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159">
+        <v>1593.85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160">
+        <v>3220</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160">
+        <v>4813.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161">
+        <v>1640</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161">
+        <v>6453.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162">
+        <v>3417</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162">
+        <v>9870.85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>70.73999999999999</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163">
+        <v>9800.110000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>11.34</v>
+      </c>
+      <c r="E164" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164">
+        <v>9788.77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165">
+        <v>8408</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165">
+        <v>18196.77</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>128.63</v>
+      </c>
+      <c r="E166" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166">
+        <v>18068.14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>20.59</v>
+      </c>
+      <c r="E167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F167">
+        <v>18047.55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168">
+        <v>169.85</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168">
+        <v>17877.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169">
+        <v>1424.85</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>92</v>
+      </c>
+      <c r="F169">
+        <v>16452.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170">
+        <v>2447</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>93</v>
+      </c>
+      <c r="F170">
+        <v>18899.85</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>3856</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171">
+        <v>22755.85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>3177</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172">
+        <v>25932.85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173">
+        <v>2443</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173">
+        <v>28375.85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>50.57</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174">
+        <v>28325.28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>8.1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175">
+        <v>28317.18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176">
+        <v>2283</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176">
+        <v>30600.18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>34.93</v>
+      </c>
+      <c r="E177" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177">
+        <v>30565.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>5.59</v>
+      </c>
+      <c r="E178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178">
+        <v>30559.66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179">
+        <v>1547</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179">
+        <v>32106.66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180">
+        <v>32.02</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180">
+        <v>32074.64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>5.13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181">
+        <v>32069.51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182">
+        <v>4044</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182">
+        <v>36113.51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>61.87</v>
+      </c>
+      <c r="E183" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183">
+        <v>36051.64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>9.9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>37</v>
+      </c>
+      <c r="F184">
+        <v>36041.74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185">
+        <v>1752.41</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>96</v>
+      </c>
+      <c r="F185">
+        <v>34289.33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186">
+        <v>30000</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>97</v>
+      </c>
+      <c r="F186">
+        <v>4289.33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187">
+        <v>812</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>98</v>
+      </c>
+      <c r="F187">
+        <v>3477.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>9000</v>
+      </c>
+      <c r="E188" t="s">
+        <v>99</v>
+      </c>
+      <c r="F188">
+        <v>12477.33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189">
+        <v>8961.48</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>100</v>
+      </c>
+      <c r="F189">
+        <v>3515.85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190">
+        <v>2500</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>101</v>
+      </c>
+      <c r="F190">
+        <v>1015.85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>26</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191">
+        <v>1201</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>32</v>
+      </c>
+      <c r="F191">
+        <v>2216.85</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>24.86</v>
+      </c>
+      <c r="E192" t="s">
+        <v>33</v>
+      </c>
+      <c r="F192">
+        <v>2191.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>26</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>3.97</v>
+      </c>
+      <c r="E193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193">
+        <v>2188.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>1863</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194">
+        <v>4051.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>26</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>28.51</v>
+      </c>
+      <c r="E195" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195">
+        <v>4022.51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>4.56</v>
+      </c>
+      <c r="E196" t="s">
+        <v>37</v>
+      </c>
+      <c r="F196">
+        <v>4017.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>26</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197">
+        <v>221.04</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>60</v>
+      </c>
+      <c r="F197">
+        <v>4238.99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>10000</v>
+      </c>
+      <c r="E198" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198">
+        <v>14238.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199">
+        <v>3480</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>103</v>
+      </c>
+      <c r="F199">
+        <v>10758.99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>26</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200">
+        <v>4500</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>104</v>
+      </c>
+      <c r="F200">
+        <v>6258.99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>549</v>
+      </c>
+      <c r="E201" t="s">
+        <v>105</v>
+      </c>
+      <c r="F201">
+        <v>5709.99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>27</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202">
+        <v>497.01</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>106</v>
+      </c>
+      <c r="F202">
+        <v>5212.98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203">
+        <v>3741.98</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>107</v>
+      </c>
+      <c r="F203">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204">
+        <v>90</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>32</v>
+      </c>
+      <c r="F204">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1.86</v>
+      </c>
+      <c r="E205" t="s">
+        <v>33</v>
+      </c>
+      <c r="F205">
+        <v>1559.14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0.3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206">
+        <v>1558.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207">
+        <v>1365</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207">
+        <v>2923.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>20.88</v>
+      </c>
+      <c r="E208" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208">
+        <v>2902.96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>3.34</v>
+      </c>
+      <c r="E209" t="s">
+        <v>37</v>
+      </c>
+      <c r="F209">
+        <v>2899.62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210">
+        <v>1000</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>52</v>
+      </c>
+      <c r="F210">
+        <v>3899.62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211">
+        <v>6001</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211">
+        <v>9900.620000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>27</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212">
+        <v>3000</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212">
+        <v>12900.62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>27</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213">
+        <v>4124</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>52</v>
+      </c>
+      <c r="F213">
+        <v>17024.62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" t="s">
+        <v>30</v>
+      </c>
+      <c r="C214">
+        <v>3903</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>52</v>
+      </c>
+      <c r="F214">
+        <v>20927.62</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215">
+        <v>9436</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>52</v>
+      </c>
+      <c r="F215">
+        <v>30363.62</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216">
+        <v>13566</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>52</v>
+      </c>
+      <c r="F216">
+        <v>43929.62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217">
+        <v>9150</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217">
+        <v>53079.62</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218">
+        <v>4865</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>52</v>
+      </c>
+      <c r="F218">
+        <v>57944.62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219">
+        <v>4868</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219">
+        <v>62812.62</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220">
+        <v>5528</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>108</v>
+      </c>
+      <c r="F220">
+        <v>57284.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221">
+        <v>332</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>32</v>
+      </c>
+      <c r="F221">
+        <v>57616.62</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>6.87</v>
+      </c>
+      <c r="E222" t="s">
+        <v>33</v>
+      </c>
+      <c r="F222">
+        <v>57609.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1.1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223">
+        <v>57608.65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224">
+        <v>2054</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224">
+        <v>59662.65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225">
+        <v>31.43</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225">
+        <v>59631.22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>5.04</v>
+      </c>
+      <c r="E226" t="s">
+        <v>37</v>
+      </c>
+      <c r="F226">
+        <v>59626.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227">
+        <v>58892.84</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>109</v>
+      </c>
+      <c r="F227">
+        <v>733.34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228">
+        <v>250</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>109</v>
+      </c>
+      <c r="F228">
+        <v>483.34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229">
+        <v>18</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>110</v>
+      </c>
+      <c r="F229">
+        <v>465.34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230">
+        <v>2.88</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>111</v>
+      </c>
+      <c r="F230">
+        <v>462.46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>112</v>
+      </c>
+      <c r="F231">
+        <v>12026.28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232">
+        <v>0.16</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>113</v>
+      </c>
+      <c r="F232">
+        <v>12026.12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>9750</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
+      <c r="B233" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>35480</v>
+      </c>
+      <c r="E233" t="s">
+        <v>114</v>
+      </c>
+      <c r="F233">
+        <v>47506.12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234">
+        <v>45000</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>115</v>
+      </c>
+      <c r="F234">
+        <v>2506.12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235">
+        <v>869.64</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>116</v>
+      </c>
+      <c r="F235">
+        <v>1636.48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236">
+        <v>140</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>116</v>
+      </c>
+      <c r="F236">
+        <v>1496.48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>30</v>
+      </c>
+      <c r="C237">
+        <v>22.4</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>116</v>
+      </c>
+      <c r="F237">
+        <v>1474.08</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238">
+        <v>532.4400000000001</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>117</v>
+      </c>
+      <c r="F238">
+        <v>941.64</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>40000</v>
+      </c>
+      <c r="E239" t="s">
+        <v>118</v>
+      </c>
+      <c r="F239">
+        <v>40941.64</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>17</v>
+      </c>
+      <c r="B240" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>20000</v>
+      </c>
+      <c r="E240" t="s">
+        <v>119</v>
+      </c>
+      <c r="F240">
+        <v>20941.64</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>2000</v>
+      </c>
+      <c r="E241" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241">
+        <v>15918.64</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>80000</v>
+      </c>
+      <c r="E242" t="s">
+        <v>121</v>
+      </c>
+      <c r="F242">
+        <v>95918.64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" t="s">
+        <v>30</v>
+      </c>
+      <c r="C243">
+        <v>95000</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>122</v>
+      </c>
+      <c r="F243">
+        <v>918.64</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>500</v>
+      </c>
+      <c r="E244" t="s">
+        <v>122</v>
+      </c>
+      <c r="F244">
+        <v>418.64</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" t="s">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>26.45</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>117</v>
+      </c>
+      <c r="F245">
+        <v>392.19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>30000</v>
+      </c>
+      <c r="E246" t="s">
+        <v>123</v>
+      </c>
+      <c r="F246">
+        <v>30392.19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247">
+        <v>9000</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>124</v>
+      </c>
+      <c r="F247">
+        <v>21392.19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" t="s">
+        <v>30</v>
+      </c>
+      <c r="C248">
+        <v>221.04</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>117</v>
+      </c>
+      <c r="F248">
+        <v>21171.15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" t="s">
+        <v>30</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>10000</v>
+      </c>
+      <c r="E249" t="s">
+        <v>125</v>
+      </c>
+      <c r="F249">
+        <v>11171.15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" t="s">
+        <v>30</v>
+      </c>
+      <c r="C250">
+        <v>15.46</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>126</v>
+      </c>
+      <c r="F250">
+        <v>11186.61</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251">
+        <v>10.86</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>127</v>
+      </c>
+      <c r="F251">
+        <v>11175.75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>112</v>
+      </c>
+      <c r="F252">
+        <v>11173.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253">
+        <v>0.32</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>113</v>
+      </c>
+      <c r="F253">
+        <v>11173.43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" t="s">
+        <v>30</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>80</v>
+      </c>
+      <c r="E254" t="s">
+        <v>128</v>
+      </c>
+      <c r="F254">
+        <v>11093.43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" t="s">
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>12.8</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>129</v>
+      </c>
+      <c r="F255">
+        <v>11080.63</v>
       </c>
     </row>
   </sheetData>
